--- a/src/main/webapp/img/Documento Version Yemsys.xlsx
+++ b/src/main/webapp/img/Documento Version Yemsys.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hvelazquez\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hvelazquez\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CBED63-8406-41AC-8C02-4102DC219FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A9E5D9-DB77-48A3-B820-8F1500E0E7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="254">
   <si>
     <t>Seq</t>
   </si>
@@ -795,6 +795,12 @@
   </si>
   <si>
     <t>INFORMES GENERADOS</t>
+  </si>
+  <si>
+    <t>0099-PAN-30062022-A</t>
+  </si>
+  <si>
+    <t>PENDIENTES POR AREA</t>
   </si>
 </sst>
 </file>
@@ -1475,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H99" sqref="H99"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100:XFD100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3737,6 +3743,21 @@
       <c r="A100">
         <f t="shared" si="1"/>
         <v>99</v>
+      </c>
+      <c r="B100" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="C100" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="D100" s="47" t="s">
+        <v>253</v>
+      </c>
+      <c r="F100" s="48">
+        <v>44742</v>
+      </c>
+      <c r="G100" s="49">
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/src/main/webapp/img/Documento Version Yemsys.xlsx
+++ b/src/main/webapp/img/Documento Version Yemsys.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hvelazquez\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hvelazquez\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A9E5D9-DB77-48A3-B820-8F1500E0E7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2F4B17-29DC-4371-81C5-82EAF1CA41DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="256">
   <si>
     <t>Seq</t>
   </si>
@@ -801,6 +801,12 @@
   </si>
   <si>
     <t>PENDIENTES POR AREA</t>
+  </si>
+  <si>
+    <t>0100-PAN-15072022-A</t>
+  </si>
+  <si>
+    <t>SE AGREGÓ EL BOTÓN DE COPIAR GRILLA, PARA EL PROCESO DE PEGADO AL SAP</t>
   </si>
 </sst>
 </file>
@@ -1481,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100:XFD100"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104:M127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3676,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -3697,7 +3703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -3718,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -3739,7 +3745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -3760,73 +3766,91 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="C101" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="F101" s="48">
+        <v>44757</v>
+      </c>
+      <c r="G101" s="49">
+        <v>75</v>
+      </c>
+      <c r="H101" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" si="1"/>
         <v>111</v>

--- a/src/main/webapp/img/Documento Version Yemsys.xlsx
+++ b/src/main/webapp/img/Documento Version Yemsys.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hvelazquez\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hvelazquez\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2F4B17-29DC-4371-81C5-82EAF1CA41DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654A3BE3-9CEA-4CC7-9904-4F86C8BCC5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="258">
   <si>
     <t>Seq</t>
   </si>
@@ -807,6 +807,12 @@
   </si>
   <si>
     <t>SE AGREGÓ EL BOTÓN DE COPIAR GRILLA, PARA EL PROCESO DE PEGADO AL SAP</t>
+  </si>
+  <si>
+    <t>0101-PAN-10082022-A</t>
+  </si>
+  <si>
+    <t>Log de modificaciones</t>
   </si>
 </sst>
 </file>
@@ -1487,8 +1493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104:M127"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3794,6 +3800,21 @@
       <c r="A102">
         <f t="shared" si="1"/>
         <v>101</v>
+      </c>
+      <c r="B102" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="C102" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" s="47" t="s">
+        <v>257</v>
+      </c>
+      <c r="F102" s="48">
+        <v>44783</v>
+      </c>
+      <c r="G102" s="49">
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
